--- a/Pick&Place/Requirements/Pick_place.xlsx
+++ b/Pick&Place/Requirements/Pick_place.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEGAsync\libri\Master\04_Model_Based\Esame\Simulazione-Avanzata-Master\Pick&amp;Place\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEGAsync\libri\Master\04_Model_Based\Esame\Model-Based-Master\Pick&amp;Place\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4DED80-1609-4CBD-B4F1-1FD6B43F0A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784149D1-24F5-4042-A298-B7EEF0DFE293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17745" yWindow="4920" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Simulink_requirement_item_1">Sheet1!$F$28</definedName>
+    <definedName name="Simulink_requirement_item_1">Sheet1!$F$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -39,39 +39,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
     <t>Scatola 3: stato 0,1,2,3,4,5,6 = N pezzi</t>
   </si>
   <si>
@@ -94,42 +61,6 @@
   </si>
   <si>
     <t>Deposita Scatola 3 --&gt; Pezzo3</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>R23</t>
   </si>
   <si>
     <t>Dashboard</t>
@@ -214,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -233,16 +164,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -250,34 +200,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -288,18 +330,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC9BAC1-8556-4D24-8490-40B1AFF53A3C}" name="Tabella1" displayName="Tabella1" ref="A1:C35" totalsRowShown="0">
-  <autoFilter ref="A1:C35" xr:uid="{C83435B9-BEE0-4FB8-9163-FD8F5F7B9E63}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BED8E264-D59E-4618-B98B-F06EF1E572E4}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{4ED28E0C-A0AA-41E5-AF14-F7ECA9568E23}" name="Summary"/>
-    <tableColumn id="3" xr3:uid="{0C8D477E-56AF-48F6-B38D-35923F5F596D}" name="Description" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,9 +595,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -579,275 +609,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
+      <c r="B18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="C25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="C26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>37</v>
+      <c r="C31" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="1"/>
@@ -875,22 +990,10 @@
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>